--- a/data/bank-marketing-template.xlsx
+++ b/data/bank-marketing-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makaishi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C4F199-A9C8-DB41-A3C2-B60321324296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A95BF-24F7-7445-8180-73492D8C3C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4760" windowWidth="27900" windowHeight="15780" xr2:uid="{B18B8B97-DBDB-5644-BF79-AA8D600D91E5}"/>
+    <workbookView xWindow="900" yWindow="1000" windowWidth="27900" windowHeight="15780" xr2:uid="{B18B8B97-DBDB-5644-BF79-AA8D600D91E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,6 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -134,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,14 +186,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,18 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27B1F0-B116-8348-AE24-97B096F149F4}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,20 +558,18 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{2F27B1F0-B116-8348-AE24-97B096F149F4}"/>
